--- a/potato.xlsx
+++ b/potato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mojja\Desktop\Anaconda Files\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78541F3F-5BF5-4E8C-A28C-25A23862FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE495C4-06D6-084F-A202-924D58916C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{211FBD21-4F90-B340-98CC-5AA6907E2196}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sweet potato performance dara" sheetId="1" r:id="rId1"/>
     <sheet name="soil and manure data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="108">
   <si>
     <t>Nitisol</t>
   </si>
@@ -255,34 +257,7 @@
     <t>branchNumber</t>
   </si>
   <si>
-    <t>lengthMainStem(cm)</t>
-  </si>
-  <si>
     <t>leafAreaIndex</t>
-  </si>
-  <si>
-    <t>petoileLength(cm)</t>
-  </si>
-  <si>
-    <t>weightAdventitousRoots(Kg)</t>
-  </si>
-  <si>
-    <t>dryBiomass(Kg)</t>
-  </si>
-  <si>
-    <t>weightSmallStorageRoots(Kg)</t>
-  </si>
-  <si>
-    <t>weightMediumStorageRoots(Kg)</t>
-  </si>
-  <si>
-    <t>weightBigStorageRoots(Kg)</t>
-  </si>
-  <si>
-    <t>totalWeightStorageRoots(Kg)</t>
-  </si>
-  <si>
-    <t>weightMarketableStorageRoots(Kg)</t>
   </si>
   <si>
     <t>totalNumberStorageRoots</t>
@@ -291,7 +266,34 @@
     <t>totalYield(T/ha)</t>
   </si>
   <si>
-    <t>marketableYield(T/ha)</t>
+    <t>marketableYield</t>
+  </si>
+  <si>
+    <t>lengthMainStemCM</t>
+  </si>
+  <si>
+    <t>petoileLength_CM</t>
+  </si>
+  <si>
+    <t>weightAdventitousRootsKG</t>
+  </si>
+  <si>
+    <t>dryBiomassKG</t>
+  </si>
+  <si>
+    <t>weightSmallStorageRootsKG</t>
+  </si>
+  <si>
+    <t>weightMediumStorageRootsKG</t>
+  </si>
+  <si>
+    <t>weightBigStorageRootsKG</t>
+  </si>
+  <si>
+    <t>totalWeightStorageRootsKG</t>
+  </si>
+  <si>
+    <t>weightMarketableStorageRootsKG</t>
   </si>
 </sst>
 </file>
@@ -680,34 +682,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4858BD5E-A4B6-FB43-8246-F07C9FF389F6}">
   <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="27.875" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="28.375" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
-    <col min="17" max="17" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="13.19140625" customWidth="1"/>
+    <col min="4" max="4" width="22.6875" customWidth="1"/>
+    <col min="5" max="5" width="17.38671875" customWidth="1"/>
+    <col min="6" max="6" width="22.8125" customWidth="1"/>
+    <col min="7" max="7" width="16.27734375" customWidth="1"/>
+    <col min="9" max="9" width="24.16796875" customWidth="1"/>
+    <col min="10" max="10" width="27.49609375" customWidth="1"/>
+    <col min="11" max="11" width="16.890625" customWidth="1"/>
+    <col min="12" max="12" width="20.83984375" customWidth="1"/>
+    <col min="13" max="13" width="27.8671875" customWidth="1"/>
+    <col min="14" max="14" width="19.9765625" customWidth="1"/>
+    <col min="15" max="15" width="28.359375" customWidth="1"/>
+    <col min="16" max="16" width="30.578125" customWidth="1"/>
+    <col min="17" max="17" width="27.49609375" customWidth="1"/>
     <col min="18" max="18" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.25" customWidth="1"/>
-    <col min="20" max="20" width="28.25" customWidth="1"/>
-    <col min="21" max="21" width="16.875" customWidth="1"/>
-    <col min="22" max="22" width="19.375" customWidth="1"/>
+    <col min="19" max="19" width="34.28125" customWidth="1"/>
+    <col min="20" max="20" width="28.23828125" customWidth="1"/>
+    <col min="21" max="21" width="16.890625" customWidth="1"/>
+    <col min="22" max="22" width="19.359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -736,46 +738,46 @@
         <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -843,7 +845,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -911,7 +913,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -979,7 +981,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -3835,7 +3837,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>17</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>18.47</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>18</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>18</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>18</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>18</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>18</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>18</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
@@ -6011,7 +6013,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>18</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>18</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>18</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>18</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>18</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
@@ -6691,7 +6693,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>18</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>18</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>18</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>18</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>18</v>
       </c>
@@ -7167,7 +7169,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>18</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>18</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>18</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>18</v>
       </c>
@@ -7575,7 +7577,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>18</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>18</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>18</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>18</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>18</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>18</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>18</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>18</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>18</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>21.17</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>18</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>18</v>
       </c>
@@ -8527,7 +8529,7 @@
         <v>22.33</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>18</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>18</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>18</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>18</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>18</v>
       </c>
@@ -8949,9 +8951,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -9058,7 +9060,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -9094,7 +9096,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -9130,7 +9132,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -9274,7 +9276,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -9310,7 +9312,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -9346,7 +9348,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
